--- a/DbLayouts/L5-管理性作業/PfDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfDetail.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="218">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -664,10 +664,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Introducer</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>IsCoorgnizerDay15</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -885,6 +881,18 @@
   </si>
   <si>
     <t>BsPerfCnt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindByBormNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo =</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introducer</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1573,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1624,7 +1632,7 @@
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>18</v>
@@ -1705,13 +1713,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>170</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="42"/>
@@ -1734,7 +1742,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1806,7 +1814,7 @@
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1826,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1950,7 +1958,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>72</v>
@@ -1970,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>81</v>
@@ -2021,10 +2029,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>97</v>
@@ -2034,7 +2042,7 @@
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2165,10 +2173,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>188</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>189</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>25</v>
@@ -2180,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="32.4">
@@ -2191,7 +2199,7 @@
         <v>118</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>25</v>
@@ -2203,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="32" customFormat="1">
@@ -2211,10 +2219,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>25</v>
@@ -2226,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2249,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2257,10 +2265,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>25</v>
@@ -2272,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2295,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="32" customFormat="1">
@@ -2303,10 +2311,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>25</v>
@@ -2318,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.4">
@@ -2329,7 +2337,7 @@
         <v>96</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>25</v>
@@ -2341,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="32" customFormat="1" ht="26.4" customHeight="1">
@@ -2352,7 +2360,7 @@
         <v>124</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>25</v>
@@ -2364,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36" customHeight="1">
@@ -2387,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="32" customFormat="1">
@@ -2410,7 +2418,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.4">
@@ -2421,7 +2429,7 @@
         <v>122</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>25</v>
@@ -2433,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2484,7 +2492,7 @@
         <v>113</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>25</v>
@@ -2496,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="22.2" customHeight="1">
@@ -2504,10 +2512,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>25</v>
@@ -2525,10 +2533,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>25</v>
@@ -2540,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2551,7 +2559,7 @@
         <v>71</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>25</v>
@@ -2563,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2605,20 +2613,20 @@
         <v>43</v>
       </c>
       <c r="B53" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="D53" s="29" t="s">
         <v>210</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>211</v>
       </c>
       <c r="E53" s="31">
         <v>1</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="32" customFormat="1">
@@ -2647,10 +2655,10 @@
         <v>45</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>90</v>
@@ -2666,10 +2674,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="29" t="s">
         <v>90</v>
@@ -3077,11 +3085,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3138,13 +3146,21 @@
     </row>
     <row r="5" spans="1:3" s="33" customFormat="1">
       <c r="A5" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>174</v>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1581,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>

--- a/DbLayouts/L5-管理性作業/PfDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -92,83 +92,83 @@
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BormNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PerfDate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>額度編號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>撥款序號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>WorkSeason</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FacMain.Introducer 介紹人</t>
@@ -180,35 +180,35 @@
   </si>
   <si>
     <t>DeptManager</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>RepayType</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ProdCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DeptCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DistCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DistManager</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>UnitManager</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DrawdownDate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CdBcm.UnitManager 處經理代號</t>
@@ -224,47 +224,47 @@
   </si>
   <si>
     <t>業績日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>還款類別</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>商品代碼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>單位代號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>區部代號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>部室代號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>區經理代號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>部經理代號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>工作月</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>工作季</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">應該抓介紹人的在CdEmp的上層主管DirectorId
@@ -273,11 +273,11 @@
   </si>
   <si>
     <t>撥款日</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DrawdownAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CdBcm.District 區部</t>
@@ -293,39 +293,39 @@
   </si>
   <si>
     <t>ItPerfReward</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ItPerfAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BsPerfAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>WorkMonth</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>處經理代號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BsOfficer</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>房貸專員</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FacMain.BusinessOfficer 放款業務專員</t>
@@ -333,7 +333,7 @@
   </si>
   <si>
     <t>部室代號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>應以PfBsOfficer(房貸專員業績目標檔)計算業績</t>
@@ -356,7 +356,7 @@
   </si>
   <si>
     <t>案件編號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FacMain.ProdNo 商品代碼</t>
@@ -364,7 +364,7 @@
   </si>
   <si>
     <t>CreditSysNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FacMain.CreditSysNo 徵審系統案號(eLoan案件編號)</t>
@@ -372,51 +372,51 @@
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>已攤還期數</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>RepaidPeriod</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ItBonus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>UnitCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BorxNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>交易內容檔序號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InterviewerA</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>findByPerfDate</t>
@@ -451,19 +451,19 @@
   </si>
   <si>
     <t>介紹人業務報酬</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹人業績金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BsDeptCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ComputeBsAmtFac</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND WorkMonth &gt;= ,AND WorkMonth &lt;=</t>
@@ -475,23 +475,23 @@
   </si>
   <si>
     <t>IsProdFinancial</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>只寫入首筆撥貸</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ItPerfCnt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PieceCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>計件代碼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>撥款、計件代碼變更為正值，部分償還、提前結案為負值(訂正相反)</t>
@@ -499,193 +499,193 @@
   </si>
   <si>
     <t>CoorgnizerBonus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ItAddBonus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ComputeAddBonusAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹人加碼獎勵津貼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ComputeCoBonusAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>協辦人員協辦獎金計算金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>撥款金額/追回金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>理財型房貸(Y/N)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsProdExclude1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsProdExclude2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsProdExclude3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsProdExclude4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsProdExclude5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>全部業績</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 換算業績、業務報酬
 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹獎金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>加碼獎勵津貼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>協辦獎金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsDeptExclude1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsDeptExclude2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsDeptExclude3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsDeptExclude4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsDeptExclude5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsDay15Exclude1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsDay15Exclude2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsDay15Exclude3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsDay15Exclude4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsDay15Exclude5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>協辦獎金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>全部業績</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 換算業績、業務報酬
 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">計算業績排除商品別(Y/Null)
 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">計算業績排除商品別(Y/Nnull)
 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否屬排徐部門別(Y/Null)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否屬排徐部門別(Y/Null)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否屬排徐部門別(Y/Null)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否屬排徐部門別(Y/Null)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否屬15日薪被排除(Y/Null/E-屬15日薪未設排除條件)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否屬15日薪被排除(Y/Null/E-屬15日薪未設排除條件)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否屬15日薪被排除(Y/Null/E-屬15日薪未設排除條件)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsCoorgnizerDay15</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>協辦人員協辦獎金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>協辦人員是否為15日薪(Y/Null)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹人是否為15日薪(Y/Null)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsIntroducerDay15</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Coorgnizer</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>序號</t>
@@ -695,7 +695,7 @@
   </si>
   <si>
     <t>LogNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LogNo</t>
@@ -715,7 +715,7 @@
   </si>
   <si>
     <t>ItPerfEqAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案</t>
@@ -729,159 +729,159 @@
   </si>
   <si>
     <t>訂正序號相同</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>業績重算時是否以新員工資料更新介紹人所屬單位Y/N/null</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>單位、區部、部室及處經理代號、區經理代號、部經理代號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsReNewEmpUnit</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹單位件數</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>房貸專員件數累計計算金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹人加碼獎勵津貼計算金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹人換算業績</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>單筆計算</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ComputeItAmtFac</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹單位件數累計計算金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ComputeBsAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>房貸專員業績金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>房貸專員計算金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>依協辦人員協辦獎金計算金額計算，扣除已計
 追回撥款後計息期間未逾一個月即結清(含部分還款達60萬元)案件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>同一額度、同一撥款工作月，累計計算</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ComputeItAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>撥款金額、追回差額(未繳足3期期款即結清、含部分還款達60萬之案件)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>撥款金額、追回差額(未繳足3期期款即結清、含部分還款達60萬之案件)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>單筆計算</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>同一額度、同一撥款工作月、同一計件代碼，累計計算金額
 追回未逾一個月即結清(含部分還款達60萬元)
 同案件新貸件(代碼2&amp;B)於6個月內撥款，連同(代碼1&amp;A)計算</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>同一額度、同一撥款工作月、同一計件代碼，累計計算金額
 追回未繳足3期期款即結清（含部分還款達60萬之案件)
 同案件新貸件(代碼2&amp;B)於6個月內撥款，連同(代碼1&amp;A)計算</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹人業績金額計算金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>同一額度、同一撥款工作月，同一計件代碼，累計計算</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹人介紹獎金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>介紹人介紹獎金計算金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>依累計金額計算，扣除已計
 追回撥款後計息期間未逾一個月即結清(含部分還款達60萬元)案件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>依累計金額計算，扣除已計
 追回撥款後計息期間未逾一個月即結清(含部分還款達60萬元)案件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>單筆計算</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ComputeItBonusAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PieceCodeCombine</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>連同計件代碼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>同案件新貸件(代碼2&amp;B)於6個月內撥款，連同(代碼1&amp;A)計算</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0,無計件 1.有計件
 寫入介紹人業績明細檔時，代碼(2&amp;B)之是否計件寫入(代碼1&amp;A)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>房貸專員件數</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BsPerfCnt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FindByBormNo</t>
@@ -893,14 +893,14 @@
   </si>
   <si>
     <t>Introducer</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -969,40 +969,11 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1020,10 +991,19 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1114,7 +1094,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1124,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,140 +1114,113 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1581,1489 +1534,1464 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="13" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="57.5546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="41" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="6"/>
+    <col min="1" max="1" width="6" style="37" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="57.5546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.6640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="41" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="7" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="47" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="47" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.8" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="23" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1">
-      <c r="A9" s="28">
+    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="1:7" ht="48.6">
-      <c r="A10" s="16">
+      <c r="E9" s="9"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="32">
         <v>8</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="28">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="32">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="28">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="28">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1">
-      <c r="A14" s="28">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
         <v>6</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="32">
         <v>4</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="28">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="32">
         <v>1</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="28">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
         <v>8</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="32">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="28">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="26">
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="32">
         <v>16</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="26">
         <v>2</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="34" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="28">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
         <v>10</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="27" customFormat="1">
-      <c r="A19" s="28">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
         <v>11</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="32">
         <v>3</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="28">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="26">
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="32">
         <v>5</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="28">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
         <v>13</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="32">
         <v>7</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="28">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
         <v>14</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="32">
         <v>8</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="28">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
         <v>15</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="32">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="28">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
         <v>16</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="32">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="28">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <v>17</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="32">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="27" customFormat="1">
-      <c r="A26" s="28">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
         <v>18</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="32">
         <v>1</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="34" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="28">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
         <v>19</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="32">
         <v>6</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="32">
         <v>6</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="28">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
         <v>21</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="32">
         <v>6</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A30" s="28">
+    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26">
         <v>22</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="32">
         <v>8</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="28">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="26">
         <v>23</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="32">
         <v>8</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="28">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="26">
         <v>24</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="32">
         <v>8</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="32" customFormat="1" ht="52.8" customHeight="1">
-      <c r="A33" s="28">
+    <row r="33" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
         <v>25</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="32">
         <v>16</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="26">
         <v>2</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="33" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="32.4">
-      <c r="A34" s="28">
+    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="26">
         <v>26</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="36">
         <v>5</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="26">
         <v>1</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="33" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="32" customFormat="1">
-      <c r="A35" s="28">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="26">
         <v>27</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="32">
         <v>16</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="26">
         <v>2</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="28">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="26">
         <v>28</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="32">
         <v>16</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="26">
         <v>2</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="34" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="28">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="26">
         <v>29</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="32">
         <v>16</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="26">
         <v>2</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="28">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="26">
         <v>30</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="32">
         <v>16</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="26">
         <v>2</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="32" customFormat="1">
-      <c r="A39" s="28">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
         <v>31</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="32">
         <v>16</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="26">
         <v>2</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="32.4">
-      <c r="A40" s="28">
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
         <v>32</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="32">
         <v>16</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="26">
         <v>2</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="33" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="32" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A41" s="28">
+    <row r="41" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="26">
         <v>33</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="32">
         <v>16</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="26">
         <v>2</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="33" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="36" customHeight="1">
-      <c r="A42" s="28">
+    <row r="42" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26">
         <v>34</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="32">
         <v>16</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="26">
         <v>2</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="32" customFormat="1">
-      <c r="A43" s="28">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="26">
         <v>35</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="32">
         <v>16</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F43" s="26">
         <v>2</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="33" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="32.4">
-      <c r="A44" s="28">
+    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="26">
         <v>36</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="32">
         <v>16</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="26">
         <v>2</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="33" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="28">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="26">
         <v>37</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="32">
         <v>6</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="28">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="26">
         <v>38</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="32">
         <v>6</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="32" customFormat="1" ht="48.6">
-      <c r="A47" s="28">
+    <row r="47" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="26">
         <v>39</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="32">
         <v>16</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="26">
         <v>2</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="22.2" customHeight="1">
-      <c r="A48" s="28">
+    <row r="48" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26">
         <v>40</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="36">
         <v>5</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="26">
         <v>1</v>
       </c>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" s="32" customFormat="1">
-      <c r="A49" s="28">
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="26">
         <v>41</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="32">
         <v>16</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="26">
         <v>2</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="28">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="26">
         <v>42</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="32">
         <v>16</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="26">
         <v>2</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G50" s="34" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="28">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="26">
         <v>62</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="32">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="28">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="26">
         <v>63</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="32" customFormat="1">
-      <c r="A53" s="28">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="26">
         <v>43</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="32">
         <v>1</v>
       </c>
-      <c r="F53" s="43"/>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="34" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="32" customFormat="1">
-      <c r="A54" s="28">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="26">
         <v>44</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="32">
         <v>1</v>
       </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="32" customFormat="1">
-      <c r="A55" s="28">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="26">
         <v>45</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="32">
         <v>1</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="21"/>
-    </row>
-    <row r="56" spans="1:7" s="32" customFormat="1">
-      <c r="A56" s="28">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="26">
         <v>46</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="32">
         <v>1</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="57" spans="1:7" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="28">
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26">
         <v>47</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="32">
         <v>1</v>
       </c>
-      <c r="F57" s="43"/>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="32" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="28">
+    <row r="58" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
         <v>48</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="32">
         <v>1</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="33" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="32" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A59" s="28">
+    <row r="59" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
         <v>49</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="32">
         <v>1</v>
       </c>
-      <c r="F59" s="43"/>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="27" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A60" s="28">
+    <row r="60" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
         <v>50</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="32">
         <v>1</v>
       </c>
-      <c r="F60" s="43"/>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="32" customFormat="1" ht="25.2" customHeight="1">
-      <c r="A61" s="28">
+    <row r="61" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26">
         <v>51</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="32">
         <v>1</v>
       </c>
-      <c r="F61" s="43"/>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="32" customFormat="1">
-      <c r="A62" s="28">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="26">
         <v>52</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="32">
         <v>1</v>
       </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="32" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A63" s="28">
+    <row r="63" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="26">
         <v>53</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="32">
         <v>1</v>
       </c>
-      <c r="F63" s="43"/>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="33" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="32" customFormat="1">
-      <c r="A64" s="28">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="26">
         <v>54</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="32">
         <v>1</v>
       </c>
-      <c r="F64" s="43"/>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="32" customFormat="1">
-      <c r="A65" s="28">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="26">
         <v>55</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="32">
         <v>1</v>
       </c>
-      <c r="F65" s="43"/>
-      <c r="G65" s="17" t="s">
+      <c r="G65" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="27" customFormat="1">
-      <c r="A66" s="28">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="26">
         <v>56</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="32">
         <v>1</v>
       </c>
-      <c r="F66" s="43"/>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="28">
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26">
         <v>57</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="32">
         <v>1</v>
       </c>
-      <c r="F67" s="43"/>
-      <c r="G67" s="17" t="s">
+      <c r="G67" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="28">
+    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26">
         <v>58</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="32">
         <v>1</v>
       </c>
-      <c r="F68" s="43"/>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="28">
+    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="26">
         <v>59</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="32">
         <v>1</v>
       </c>
-      <c r="F69" s="43"/>
-      <c r="G69" s="17" t="s">
+      <c r="G69" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="32" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="28">
+    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="26">
         <v>60</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="32">
         <v>1</v>
       </c>
-      <c r="F70" s="43"/>
-      <c r="G70" s="17" t="s">
+      <c r="G70" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="28">
+    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="26">
         <v>61</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E71" s="31">
+      <c r="E71" s="32">
         <v>1</v>
       </c>
-      <c r="F71" s="43"/>
-      <c r="G71" s="17" t="s">
+      <c r="G71" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="28">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="26">
         <v>64</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="20"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="28">
+      <c r="E72" s="32"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="26">
         <v>65</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="32">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="28">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="26">
         <v>66</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="20"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="28">
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="26">
         <v>67</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="32">
         <v>6</v>
       </c>
     </row>
@@ -3077,7 +3005,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3089,10 +3017,10 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="84.5546875" style="1" customWidth="1"/>
@@ -3100,7 +3028,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3111,7 +3039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
@@ -3122,7 +3050,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -3133,7 +3061,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
@@ -3144,22 +3072,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="33" customFormat="1">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="4" t="s">
         <v>216</v>
       </c>
     </row>

--- a/DbLayouts/L5-管理性作業/PfDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -718,10 +718,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>業績日期=系統營業日
 1.撥貸(計件代碼變更)，為撥款日期
 2.部分償還、提前結案，為會計日</t>
@@ -894,6 +890,10 @@
   <si>
     <t>Introducer</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.撥款(計件代碼變更) 1.計件代碼變更(留存)2.部分償還 3.提前結案</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1123,104 +1123,104 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1534,1464 +1534,1464 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="37" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="57.5546875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.6640625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="41" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="13"/>
+    <col min="1" max="1" width="6" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="57.5546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.6640625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="41" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>170</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="28">
         <v>8</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>4</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>5</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>6</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="28">
+        <v>4</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>8</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>9</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="28">
+        <v>16</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>10</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>11</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="28">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>12</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="28">
+        <v>5</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>13</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="28">
+        <v>7</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="28">
+        <v>8</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>15</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>16</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>17</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>18</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>19</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="28">
+        <v>6</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>20</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="28">
+        <v>6</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
+        <v>21</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="28">
+        <v>6</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>22</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="28">
+        <v>8</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
+        <v>23</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="28">
+        <v>8</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
+        <v>24</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="28">
+        <v>8</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
+        <v>25</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="28">
+        <v>16</v>
+      </c>
+      <c r="F33" s="22">
+        <v>2</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="22">
         <v>26</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="B34" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="32">
+        <v>5</v>
+      </c>
+      <c r="F34" s="22">
+        <v>1</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
+        <v>27</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="28">
+        <v>16</v>
+      </c>
+      <c r="F35" s="22">
+        <v>2</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
+        <v>28</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="28">
+        <v>16</v>
+      </c>
+      <c r="F36" s="22">
+        <v>2</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="22">
+        <v>29</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="28">
+        <v>16</v>
+      </c>
+      <c r="F37" s="22">
+        <v>2</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="22">
+        <v>30</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="28">
+        <v>16</v>
+      </c>
+      <c r="F38" s="22">
+        <v>2</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="22">
+        <v>31</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="28">
+        <v>16</v>
+      </c>
+      <c r="F39" s="22">
+        <v>2</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="22">
+        <v>32</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="28">
+        <v>16</v>
+      </c>
+      <c r="F40" s="22">
+        <v>2</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22">
+        <v>33</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="28">
+        <v>16</v>
+      </c>
+      <c r="F41" s="22">
+        <v>2</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22">
+        <v>34</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="28">
+        <v>16</v>
+      </c>
+      <c r="F42" s="22">
+        <v>2</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="22">
+        <v>35</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="28">
+        <v>16</v>
+      </c>
+      <c r="F43" s="22">
+        <v>2</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="22">
+        <v>36</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="28">
+        <v>16</v>
+      </c>
+      <c r="F44" s="22">
+        <v>2</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="22">
+        <v>37</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="28">
+        <v>6</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="22">
+        <v>38</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="28">
+        <v>6</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="22">
+        <v>39</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="28">
+        <v>16</v>
+      </c>
+      <c r="F47" s="22">
+        <v>2</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22">
+        <v>40</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="32">
+        <v>5</v>
+      </c>
+      <c r="F48" s="22">
+        <v>1</v>
+      </c>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="22">
+        <v>41</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="28">
+        <v>16</v>
+      </c>
+      <c r="F49" s="22">
+        <v>2</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="22">
+        <v>42</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="28">
+        <v>16</v>
+      </c>
+      <c r="F50" s="22">
+        <v>2</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="22">
+        <v>62</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="22">
+        <v>63</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="22">
+        <v>43</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" s="28">
+        <v>1</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="22">
+        <v>44</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="28">
+        <v>1</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="22">
+        <v>45</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="22">
+        <v>46</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22">
+        <v>47</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="28">
+        <v>1</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22">
+        <v>48</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="28">
+        <v>1</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22">
+        <v>49</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="28">
+        <v>1</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="22">
+        <v>50</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="28">
+        <v>1</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="22">
+        <v>51</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="28">
+        <v>1</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="22">
+        <v>52</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="28">
+        <v>1</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="22">
         <v>53</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
-        <v>4</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
-        <v>5</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+      <c r="B63" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="28">
+        <v>1</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="22">
+        <v>54</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="28">
+        <v>1</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="22">
+        <v>55</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="28">
+        <v>1</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="22">
+        <v>56</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="28">
+        <v>1</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="22">
+        <v>57</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="28">
+        <v>1</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="22">
+        <v>58</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="28">
+        <v>1</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="22">
+        <v>59</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="28">
+        <v>1</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="22">
+        <v>60</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="28">
+        <v>1</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="22">
+        <v>61</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="28">
+        <v>1</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="22">
+        <v>64</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="28"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="22">
+        <v>65</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="28">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="32">
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
-        <v>7</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="32">
-        <v>1</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
-        <v>8</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
-        <v>9</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="32">
-        <v>16</v>
-      </c>
-      <c r="F17" s="26">
-        <v>2</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
-        <v>10</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="27" t="s">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="22">
+        <v>66</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="28"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="22">
+        <v>67</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
-        <v>11</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
-        <v>12</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="32">
-        <v>5</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
-        <v>13</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="32">
-        <v>7</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
-        <v>14</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="32">
-        <v>8</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
-        <v>15</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
-        <v>16</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
-        <v>17</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
-        <v>18</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="32">
-        <v>1</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
-        <v>19</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="32">
-        <v>6</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="26">
-        <v>20</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="32">
-        <v>6</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
-        <v>21</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="32">
-        <v>6</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26">
-        <v>22</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="32">
-        <v>8</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
-        <v>23</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="32">
-        <v>8</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
-        <v>24</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="32">
-        <v>8</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26">
-        <v>25</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="32">
-        <v>16</v>
-      </c>
-      <c r="F33" s="26">
-        <v>2</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
-        <v>26</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="36">
-        <v>5</v>
-      </c>
-      <c r="F34" s="26">
-        <v>1</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
-        <v>27</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="32">
-        <v>16</v>
-      </c>
-      <c r="F35" s="26">
-        <v>2</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
-        <v>28</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="32">
-        <v>16</v>
-      </c>
-      <c r="F36" s="26">
-        <v>2</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
-        <v>29</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="32">
-        <v>16</v>
-      </c>
-      <c r="F37" s="26">
-        <v>2</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="26">
-        <v>30</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="32">
-        <v>16</v>
-      </c>
-      <c r="F38" s="26">
-        <v>2</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
-        <v>31</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="32">
-        <v>16</v>
-      </c>
-      <c r="F39" s="26">
-        <v>2</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
-        <v>32</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="32">
-        <v>16</v>
-      </c>
-      <c r="F40" s="26">
-        <v>2</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26">
-        <v>33</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="32">
-        <v>16</v>
-      </c>
-      <c r="F41" s="26">
-        <v>2</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26">
-        <v>34</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="32">
-        <v>16</v>
-      </c>
-      <c r="F42" s="26">
-        <v>2</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="26">
-        <v>35</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="32">
-        <v>16</v>
-      </c>
-      <c r="F43" s="26">
-        <v>2</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="26">
-        <v>36</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="32">
-        <v>16</v>
-      </c>
-      <c r="F44" s="26">
-        <v>2</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="26">
-        <v>37</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="32">
-        <v>6</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="26">
-        <v>38</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="32">
-        <v>6</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="26">
-        <v>39</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="32">
-        <v>16</v>
-      </c>
-      <c r="F47" s="26">
-        <v>2</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26">
-        <v>40</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="36">
-        <v>5</v>
-      </c>
-      <c r="F48" s="26">
-        <v>1</v>
-      </c>
-      <c r="G48" s="33"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="26">
-        <v>41</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="32">
-        <v>16</v>
-      </c>
-      <c r="F49" s="26">
-        <v>2</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="26">
-        <v>42</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="32">
-        <v>16</v>
-      </c>
-      <c r="F50" s="26">
-        <v>2</v>
-      </c>
-      <c r="G50" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="26">
-        <v>62</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="26">
-        <v>63</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="26">
-        <v>43</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="E53" s="32">
-        <v>1</v>
-      </c>
-      <c r="G53" s="34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="26">
-        <v>44</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="32">
-        <v>1</v>
-      </c>
-      <c r="G54" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="26">
-        <v>45</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="26">
-        <v>46</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>47</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="32">
-        <v>1</v>
-      </c>
-      <c r="G57" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="26">
-        <v>48</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="32">
-        <v>1</v>
-      </c>
-      <c r="G58" s="33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="26">
-        <v>49</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="32">
-        <v>1</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26">
-        <v>50</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="32">
-        <v>1</v>
-      </c>
-      <c r="G60" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="26">
-        <v>51</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="32">
-        <v>1</v>
-      </c>
-      <c r="G61" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="26">
-        <v>52</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" s="32">
-        <v>1</v>
-      </c>
-      <c r="G62" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26">
-        <v>53</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="32">
-        <v>1</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="26">
-        <v>54</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="32">
-        <v>1</v>
-      </c>
-      <c r="G64" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="26">
-        <v>55</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="32">
-        <v>1</v>
-      </c>
-      <c r="G65" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="26">
-        <v>56</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="32">
-        <v>1</v>
-      </c>
-      <c r="G66" s="33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26">
-        <v>57</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="32">
-        <v>1</v>
-      </c>
-      <c r="G67" s="33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26">
-        <v>58</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="32">
-        <v>1</v>
-      </c>
-      <c r="G68" s="33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="26">
-        <v>59</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="32">
-        <v>1</v>
-      </c>
-      <c r="G69" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="26">
-        <v>60</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="32">
-        <v>1</v>
-      </c>
-      <c r="G70" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="26">
-        <v>61</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="32">
-        <v>1</v>
-      </c>
-      <c r="G71" s="33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="26">
-        <v>64</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="32"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="26">
-        <v>65</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="26">
-        <v>66</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="32"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="26">
-        <v>67</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="32">
+      <c r="E75" s="28">
         <v>6</v>
       </c>
     </row>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
